--- a/data/Czech/reference/KCOR_summary.xlsx
+++ b/data/Czech/reference/KCOR_summary.xlsx
@@ -8,9 +8,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_20" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_30" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -494,17 +496,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.4167</t>
+          <t>1.3992</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.377</t>
+          <t>1.379</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.458</t>
+          <t>1.419</t>
         </is>
       </c>
     </row>
@@ -517,17 +519,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9581</t>
+          <t>0.8956</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.884</t>
+          <t>0.855</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.038</t>
+          <t>0.939</t>
         </is>
       </c>
     </row>
@@ -540,17 +542,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1192</t>
+          <t>1.1795</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.076</t>
+          <t>1.153</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.164</t>
+          <t>1.207</t>
         </is>
       </c>
     </row>
@@ -563,17 +565,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.6699</t>
+          <t>1.5686</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.611</t>
+          <t>1.540</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.731</t>
+          <t>1.598</t>
         </is>
       </c>
     </row>
@@ -586,17 +588,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.6071</t>
+          <t>1.6687</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.476</t>
+          <t>1.599</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.750</t>
+          <t>1.742</t>
         </is>
       </c>
     </row>
@@ -609,17 +611,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.9472</t>
+          <t>1.6985</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.625</t>
+          <t>1.556</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.334</t>
+          <t>1.854</t>
         </is>
       </c>
     </row>
@@ -632,17 +634,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.7622</t>
+          <t>2.7011</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.311</t>
+          <t>2.355</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.368</t>
+          <t>3.098</t>
         </is>
       </c>
     </row>
@@ -655,17 +657,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.1262</t>
+          <t>0.9224</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.141</t>
+          <t>0.715</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.964</t>
+          <t>1.190</t>
         </is>
       </c>
     </row>
@@ -678,17 +680,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.3165</t>
+          <t>1.3550</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.934</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13.165</t>
+          <t>1.966</t>
         </is>
       </c>
     </row>
@@ -701,17 +703,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.9791</t>
+          <t>8.0163</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>4.407</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.791</t>
+          <t>14.580</t>
         </is>
       </c>
     </row>
@@ -742,17 +744,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.5611</t>
+          <t>1.3358</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.510</t>
+          <t>1.313</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.614</t>
+          <t>1.359</t>
         </is>
       </c>
     </row>
@@ -765,17 +767,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.2666</t>
+          <t>1.1200</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.190</t>
+          <t>1.083</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.348</t>
+          <t>1.159</t>
         </is>
       </c>
     </row>
@@ -788,17 +790,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.7540</t>
+          <t>1.4946</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.691</t>
+          <t>1.467</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.819</t>
+          <t>1.523</t>
         </is>
       </c>
     </row>
@@ -811,17 +813,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.6937</t>
+          <t>1.4721</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.602</t>
+          <t>1.431</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.791</t>
+          <t>1.514</t>
         </is>
       </c>
     </row>
@@ -834,17 +836,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.2352</t>
+          <t>1.0088</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.113</t>
+          <t>0.953</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.371</t>
+          <t>1.068</t>
         </is>
       </c>
     </row>
@@ -857,17 +859,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.8737</t>
+          <t>1.6950</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.537</t>
+          <t>1.534</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.283</t>
+          <t>1.873</t>
         </is>
       </c>
     </row>
@@ -880,17 +882,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.6215</t>
+          <t>1.3068</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.162</t>
+          <t>1.108</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.264</t>
+          <t>1.542</t>
         </is>
       </c>
     </row>
@@ -903,17 +905,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.5699</t>
+          <t>0.6017</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.381</t>
+          <t>0.458</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.853</t>
+          <t>0.790</t>
         </is>
       </c>
     </row>
@@ -926,17 +928,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.9358</t>
+          <t>1.1353</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.798</t>
+          <t>0.806</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.694</t>
+          <t>1.600</t>
         </is>
       </c>
     </row>
@@ -949,17 +951,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.1726</t>
+          <t>3.1873</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>1.024</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31.726</t>
+          <t>9.916</t>
         </is>
       </c>
     </row>
@@ -990,17 +992,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1001</t>
+          <t>0.9559</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.055</t>
+          <t>0.937</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.147</t>
+          <t>0.976</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1015,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.3220</t>
+          <t>1.2506</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.210</t>
+          <t>1.192</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.445</t>
+          <t>1.312</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1038,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.5672</t>
+          <t>1.2671</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.497</t>
+          <t>1.238</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.641</t>
+          <t>1.297</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1061,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0143</t>
+          <t>0.9385</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.953</t>
+          <t>0.910</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.080</t>
+          <t>0.968</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1084,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.7686</t>
+          <t>0.6045</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.673</t>
+          <t>0.564</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.877</t>
+          <t>0.648</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1107,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.9623</t>
+          <t>0.9979</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.738</t>
+          <t>0.876</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.254</t>
+          <t>1.137</t>
         </is>
       </c>
     </row>
@@ -1128,17 +1130,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.9202</t>
+          <t>0.4838</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.592</t>
+          <t>0.392</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.430</t>
+          <t>0.598</t>
         </is>
       </c>
     </row>
@@ -1151,17 +1153,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.2680</t>
+          <t>0.6524</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.129</t>
+          <t>0.452</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.558</t>
+          <t>0.942</t>
         </is>
       </c>
     </row>
@@ -1179,12 +1181,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.822</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13.512</t>
+          <t>2.220</t>
         </is>
       </c>
     </row>
@@ -1202,12 +1204,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.111</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.976</t>
+          <t>1.424</t>
         </is>
       </c>
     </row>
@@ -1295,17 +1297,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0522</t>
+          <t>1.2568</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.022</t>
+          <t>1.241</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.083</t>
+          <t>1.272</t>
         </is>
       </c>
     </row>
@@ -1318,17 +1320,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9005</t>
+          <t>0.9209</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.814</t>
+          <t>0.876</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>0.968</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1343,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.9685</t>
+          <t>1.1883</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.916</t>
+          <t>1.159</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.024</t>
+          <t>1.219</t>
         </is>
       </c>
     </row>
@@ -1364,17 +1366,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0998</t>
+          <t>1.2705</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.245</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.152</t>
+          <t>1.297</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1389,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2016</t>
+          <t>1.5745</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.138</t>
+          <t>1.538</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.269</t>
+          <t>1.612</t>
         </is>
       </c>
     </row>
@@ -1410,17 +1412,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0766</t>
+          <t>1.4207</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.991</t>
+          <t>1.361</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.169</t>
+          <t>1.483</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1435,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.0475</t>
+          <t>1.0247</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.929</t>
+          <t>0.946</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.181</t>
+          <t>1.110</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1458,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.6147</t>
+          <t>1.2180</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.491</t>
+          <t>1.034</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.770</t>
+          <t>1.434</t>
         </is>
       </c>
     </row>
@@ -1479,17 +1481,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.5299</t>
+          <t>1.1881</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.024</t>
+          <t>0.881</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.253</t>
+          <t>1.603</t>
         </is>
       </c>
     </row>
@@ -1502,17 +1504,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.3448</t>
+          <t>1.4399</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.548</t>
+          <t>0.695</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.299</t>
+          <t>2.983</t>
         </is>
       </c>
     </row>
@@ -1543,17 +1545,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.1878</t>
+          <t>1.1574</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.161</t>
+          <t>1.143</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.216</t>
+          <t>1.172</t>
         </is>
       </c>
     </row>
@@ -1566,17 +1568,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8712</t>
+          <t>0.8903</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.820</t>
+          <t>0.859</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.926</t>
+          <t>0.923</t>
         </is>
       </c>
     </row>
@@ -1589,17 +1591,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0528</t>
+          <t>1.0551</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.016</t>
+          <t>1.035</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.092</t>
+          <t>1.076</t>
         </is>
       </c>
     </row>
@@ -1612,12 +1614,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.2651</t>
+          <t>1.2860</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.220</t>
+          <t>1.260</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1635,17 +1637,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.5152</t>
+          <t>1.1820</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.434</t>
+          <t>1.138</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.601</t>
+          <t>1.228</t>
         </is>
       </c>
     </row>
@@ -1658,17 +1660,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.4005</t>
+          <t>1.3132</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.263</t>
+          <t>1.224</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.554</t>
+          <t>1.409</t>
         </is>
       </c>
     </row>
@@ -1681,17 +1683,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.4143</t>
+          <t>1.3205</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.196</t>
+          <t>1.183</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.673</t>
+          <t>1.473</t>
         </is>
       </c>
     </row>
@@ -1704,17 +1706,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.2226</t>
+          <t>2.3853</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.898</t>
+          <t>1.979</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.664</t>
+          <t>2.875</t>
         </is>
       </c>
     </row>
@@ -1727,17 +1729,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.9631</t>
+          <t>0.8195</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.605</t>
+          <t>0.634</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.534</t>
+          <t>1.060</t>
         </is>
       </c>
     </row>
@@ -1750,17 +1752,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.6418</t>
+          <t>1.9942</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.255</t>
+          <t>1.015</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.614</t>
+          <t>3.920</t>
         </is>
       </c>
     </row>
@@ -1791,17 +1793,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1289</t>
+          <t>0.9229</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.094</t>
+          <t>0.910</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.165</t>
+          <t>0.936</t>
         </is>
       </c>
     </row>
@@ -1814,17 +1816,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9674</t>
+          <t>0.9668</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.877</t>
+          <t>0.921</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.067</t>
+          <t>1.014</t>
         </is>
       </c>
     </row>
@@ -1837,17 +1839,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.0871</t>
+          <t>0.8879</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.031</t>
+          <t>0.867</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.146</t>
+          <t>0.909</t>
         </is>
       </c>
     </row>
@@ -1860,17 +1862,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.1503</t>
+          <t>1.0122</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.098</t>
+          <t>0.991</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.205</t>
+          <t>1.034</t>
         </is>
       </c>
     </row>
@@ -1883,17 +1885,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.2610</t>
+          <t>0.7507</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.182</t>
+          <t>0.722</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.345</t>
+          <t>0.781</t>
         </is>
       </c>
     </row>
@@ -1906,17 +1908,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.3009</t>
+          <t>0.9243</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.156</t>
+          <t>0.857</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.464</t>
+          <t>0.997</t>
         </is>
       </c>
     </row>
@@ -1929,17 +1931,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.3502</t>
+          <t>1.2887</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.117</t>
+          <t>1.132</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.632</t>
+          <t>1.467</t>
         </is>
       </c>
     </row>
@@ -1952,17 +1954,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.9889</t>
+          <t>1.9583</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.392</t>
+          <t>1.542</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.841</t>
+          <t>2.487</t>
         </is>
       </c>
     </row>
@@ -1975,17 +1977,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.3807</t>
+          <t>1.9134</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.141</t>
+          <t>1.308</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.028</t>
+          <t>2.800</t>
         </is>
       </c>
     </row>
@@ -1998,17 +2000,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.4773</t>
+          <t>1.3850</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.137</t>
+          <t>0.518</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.667</t>
+          <t>3.703</t>
         </is>
       </c>
     </row>
@@ -2025,6 +2027,1608 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dose_Combination</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>YearOfBirth</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>KCOR</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CI_Lower</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CI_Upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Reporting date: 2023-01-02</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 vs 0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ASMR (direct)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1.0278</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.012</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.044</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.8045</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.756</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.857</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.0021</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.971</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.034</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.0139</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.989</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.040</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.2219</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.188</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.257</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.0589</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.014</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.106</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.2002</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.125</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.280</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.6789</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.594</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.776</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2.4111</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.911</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3.042</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.9642</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.634</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.467</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ASMR (direct)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1.1080</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.095</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.121</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.8308</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.801</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.862</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.9982</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.978</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.019</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1.1650</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.143</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.188</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.4678</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.429</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.508</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.1229</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.066</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.183</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.1571</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.065</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1.257</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1.3649</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.177</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.583</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1.7958</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.430</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2.255</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.4602</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.289</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.733</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ASMR (direct)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1.0781</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.061</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1.095</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1.0327</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.973</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.096</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.9961</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.968</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1.025</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1.1490</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.123</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1.176</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1.2013</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.166</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1.238</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1.0604</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.001</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1.124</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.9641</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.878</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1.059</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2.0106</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.671</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2.420</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.7448</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.549</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1.011</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.4773</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.260</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.878</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dose_Combination</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>YearOfBirth</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>KCOR</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CI_Lower</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CI_Upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Reporting date: 2024-10-07</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 vs 0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ASMR (direct)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.7114</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.700</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.724</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.7682</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.706</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.836</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.6359</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.614</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.659</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.6712</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.653</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.690</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.7124</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.691</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.734</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.2737</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.216</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.335</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.642</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.737</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2.5140</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.270</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.784</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1.4717</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.279</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.693</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.8710</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.714</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.062</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ASMR (direct)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.9615</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.954</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.969</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.7596</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.736</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.784</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.8196</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.807</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.833</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1.0490</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.034</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.064</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.1092</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.090</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.129</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.2417</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.209</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.276</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.1605</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.115</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1.207</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1.0238</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.952</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.101</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.8041</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.714</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.906</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.210</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.343</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ASMR (direct)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1.3516</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.330</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1.373</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.9888</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.912</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.072</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1.2889</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.247</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1.332</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1.5630</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.524</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1.603</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1.5570</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.512</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1.603</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.9749</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.930</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1.022</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1.6879</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.572</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1.812</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.4072</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.364</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.456</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.5464</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.464</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.643</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.3082</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.230</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.413</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2096,17 +3700,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0719</t>
+          <t>1.1180</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.026</t>
+          <t>1.073</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.120</t>
+          <t>1.164</t>
         </is>
       </c>
     </row>
@@ -2119,17 +3723,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.2719</t>
+          <t>1.2913</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.044</t>
+          <t>1.093</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.549</t>
+          <t>1.526</t>
         </is>
       </c>
     </row>
@@ -2142,17 +3746,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1881</t>
+          <t>1.2948</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.090</t>
+          <t>1.192</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.294</t>
+          <t>1.407</t>
         </is>
       </c>
     </row>
@@ -2165,17 +3769,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9180</t>
+          <t>0.9987</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.853</t>
+          <t>0.924</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.988</t>
+          <t>1.080</t>
         </is>
       </c>
     </row>
@@ -2188,17 +3792,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2070</t>
+          <t>1.0556</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.098</t>
+          <t>0.969</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.327</t>
+          <t>1.150</t>
         </is>
       </c>
     </row>
@@ -2211,17 +3815,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0105</t>
+          <t>1.0462</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.888</t>
+          <t>0.930</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.150</t>
+          <t>1.176</t>
         </is>
       </c>
     </row>
@@ -2234,17 +3838,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.8909</t>
+          <t>0.9982</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.751</t>
+          <t>0.855</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.057</t>
+          <t>1.166</t>
         </is>
       </c>
     </row>
@@ -2257,17 +3861,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.1599</t>
+          <t>1.2995</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.871</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.545</t>
+          <t>1.639</t>
         </is>
       </c>
     </row>
@@ -2280,17 +3884,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.5780</t>
+          <t>3.4020</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.031</t>
+          <t>2.437</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.414</t>
+          <t>4.749</t>
         </is>
       </c>
     </row>
@@ -2303,17 +3907,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.5085</t>
+          <t>0.9600</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.035</t>
+          <t>0.540</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.080</t>
+          <t>1.706</t>
         </is>
       </c>
     </row>
@@ -2344,17 +3948,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0079</t>
+          <t>1.0369</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.986</t>
+          <t>1.015</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.031</t>
+          <t>1.059</t>
         </is>
       </c>
     </row>
@@ -2367,17 +3971,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8176</t>
+          <t>0.8829</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.758</t>
+          <t>0.816</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.882</t>
+          <t>0.956</t>
         </is>
       </c>
     </row>
@@ -2390,17 +3994,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0363</t>
+          <t>1.0132</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.994</t>
+          <t>0.971</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.080</t>
+          <t>1.058</t>
         </is>
       </c>
     </row>
@@ -2413,17 +4017,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.9664</t>
+          <t>1.0492</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.929</t>
+          <t>1.007</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.005</t>
+          <t>1.093</t>
         </is>
       </c>
     </row>
@@ -2436,17 +4040,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1169</t>
+          <t>1.1025</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.176</t>
+          <t>1.157</t>
         </is>
       </c>
     </row>
@@ -2459,17 +4063,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.0236</t>
+          <t>0.9603</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.945</t>
+          <t>0.895</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.108</t>
+          <t>1.030</t>
         </is>
       </c>
     </row>
@@ -2482,17 +4086,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.0936</t>
+          <t>1.2224</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.978</t>
+          <t>1.112</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.222</t>
+          <t>1.343</t>
         </is>
       </c>
     </row>
@@ -2505,17 +4109,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.0699</t>
+          <t>1.1349</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.884</t>
+          <t>0.974</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.295</t>
+          <t>1.322</t>
         </is>
       </c>
     </row>
@@ -2528,17 +4132,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.4223</t>
+          <t>2.0497</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.055</t>
+          <t>1.646</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.917</t>
+          <t>2.553</t>
         </is>
       </c>
     </row>
@@ -2551,17 +4155,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.3813</t>
+          <t>1.3809</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.939</t>
+          <t>1.039</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.031</t>
+          <t>1.836</t>
         </is>
       </c>
     </row>
@@ -2592,17 +4196,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9403</t>
+          <t>0.9275</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.900</t>
+          <t>0.890</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.983</t>
+          <t>0.966</t>
         </is>
       </c>
     </row>
@@ -2615,17 +4219,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.6428</t>
+          <t>0.6837</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.526</t>
+          <t>0.576</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.785</t>
+          <t>0.812</t>
         </is>
       </c>
     </row>
@@ -2638,17 +4242,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.8722</t>
+          <t>0.7825</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.800</t>
+          <t>0.720</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.951</t>
+          <t>0.850</t>
         </is>
       </c>
     </row>
@@ -2661,17 +4265,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0527</t>
+          <t>1.0505</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.979</t>
+          <t>0.972</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.132</t>
+          <t>1.135</t>
         </is>
       </c>
     </row>
@@ -2684,17 +4288,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.9254</t>
+          <t>1.0444</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.840</t>
+          <t>0.958</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.019</t>
+          <t>1.139</t>
         </is>
       </c>
     </row>
@@ -2707,17 +4311,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.0130</t>
+          <t>0.9179</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.887</t>
+          <t>0.814</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.157</t>
+          <t>1.035</t>
         </is>
       </c>
     </row>
@@ -2730,17 +4334,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.2276</t>
+          <t>1.2245</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.027</t>
+          <t>1.045</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.467</t>
+          <t>1.435</t>
         </is>
       </c>
     </row>
@@ -2753,17 +4357,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.9224</t>
+          <t>0.8733</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.678</t>
+          <t>0.683</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.254</t>
+          <t>1.117</t>
         </is>
       </c>
     </row>
@@ -2776,17 +4380,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.9013</t>
+          <t>0.6025</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.570</t>
+          <t>0.427</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.426</t>
+          <t>0.850</t>
         </is>
       </c>
     </row>
@@ -2799,17 +4403,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.5506</t>
+          <t>1.4384</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.222</t>
+          <t>0.804</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.369</t>
+          <t>2.573</t>
         </is>
       </c>
     </row>
@@ -2840,17 +4444,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.4920</t>
+          <t>1.4225</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.463</t>
+          <t>1.398</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.522</t>
+          <t>1.447</t>
         </is>
       </c>
     </row>
@@ -2863,12 +4467,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.2063</t>
+          <t>1.2112</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.134</t>
+          <t>1.143</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2886,17 +4490,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.4690</t>
+          <t>1.3935</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.418</t>
+          <t>1.347</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.521</t>
+          <t>1.441</t>
         </is>
       </c>
     </row>
@@ -2909,17 +4513,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.5937</t>
+          <t>1.5397</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.539</t>
+          <t>1.490</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.651</t>
+          <t>1.591</t>
         </is>
       </c>
     </row>
@@ -2932,17 +4536,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.5824</t>
+          <t>1.4826</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.511</t>
+          <t>1.424</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.657</t>
+          <t>1.544</t>
         </is>
       </c>
     </row>
@@ -2955,17 +4559,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.2821</t>
+          <t>1.1019</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.186</t>
+          <t>1.035</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.386</t>
+          <t>1.173</t>
         </is>
       </c>
     </row>
@@ -2978,17 +4582,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.3494</t>
+          <t>1.3406</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.191</t>
+          <t>1.222</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.529</t>
+          <t>1.471</t>
         </is>
       </c>
     </row>
@@ -3001,17 +4605,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.9958</t>
+          <t>1.0852</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.808</t>
+          <t>0.920</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.227</t>
+          <t>1.279</t>
         </is>
       </c>
     </row>
@@ -3024,17 +4628,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.2055</t>
+          <t>1.0790</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.826</t>
+          <t>0.825</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.758</t>
+          <t>1.411</t>
         </is>
       </c>
     </row>
@@ -3047,17 +4651,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.8977</t>
+          <t>0.6787</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.511</t>
+          <t>0.428</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.576</t>
+          <t>1.076</t>
         </is>
       </c>
     </row>
@@ -3088,17 +4692,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.3919</t>
+          <t>1.2724</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.333</t>
+          <t>1.224</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.453</t>
+          <t>1.323</t>
         </is>
       </c>
     </row>
@@ -3111,17 +4715,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.9484</t>
+          <t>0.9380</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.780</t>
+          <t>0.797</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.153</t>
+          <t>1.104</t>
         </is>
       </c>
     </row>
@@ -3134,17 +4738,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.2364</t>
+          <t>1.0762</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.137</t>
+          <t>0.995</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.344</t>
+          <t>1.165</t>
         </is>
       </c>
     </row>
@@ -3157,17 +4761,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.7360</t>
+          <t>1.5417</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.617</t>
+          <t>1.432</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.864</t>
+          <t>1.660</t>
         </is>
       </c>
     </row>
@@ -3180,17 +4784,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.3110</t>
+          <t>1.4046</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.193</t>
+          <t>1.294</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.441</t>
+          <t>1.525</t>
         </is>
       </c>
     </row>
@@ -3203,17 +4807,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.2687</t>
+          <t>1.0533</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.111</t>
+          <t>0.938</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.448</t>
+          <t>1.183</t>
         </is>
       </c>
     </row>
@@ -3226,17 +4830,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.5147</t>
+          <t>1.3429</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.257</t>
+          <t>1.147</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.826</t>
+          <t>1.573</t>
         </is>
       </c>
     </row>
@@ -3249,17 +4853,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.8585</t>
+          <t>0.8350</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.624</t>
+          <t>0.648</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.181</t>
+          <t>1.076</t>
         </is>
       </c>
     </row>
@@ -3272,17 +4876,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.7640</t>
+          <t>0.3172</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.457</t>
+          <t>0.218</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.277</t>
+          <t>0.462</t>
         </is>
       </c>
     </row>
@@ -3295,17 +4899,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.3578</t>
+          <t>0.7070</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.971</t>
+          <t>1.403</t>
         </is>
       </c>
     </row>
@@ -3336,17 +4940,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.4803</t>
+          <t>1.3719</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.450</t>
+          <t>1.348</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.511</t>
+          <t>1.396</t>
         </is>
       </c>
     </row>
@@ -3359,17 +4963,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.4754</t>
+          <t>1.3719</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.374</t>
+          <t>1.279</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.584</t>
+          <t>1.472</t>
         </is>
       </c>
     </row>
@@ -3382,17 +4986,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.4175</t>
+          <t>1.3753</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.366</t>
+          <t>1.328</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.471</t>
+          <t>1.424</t>
         </is>
       </c>
     </row>
@@ -3405,17 +5009,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.6491</t>
+          <t>1.4676</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.593</t>
+          <t>1.421</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.708</t>
+          <t>1.516</t>
         </is>
       </c>
     </row>
@@ -3428,17 +5032,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.4167</t>
+          <t>1.3448</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.348</t>
+          <t>1.290</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.489</t>
+          <t>1.402</t>
         </is>
       </c>
     </row>
@@ -3451,17 +5055,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.2524</t>
+          <t>1.1475</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.151</t>
+          <t>1.072</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.363</t>
+          <t>1.228</t>
         </is>
       </c>
     </row>
@@ -3474,17 +5078,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.2339</t>
+          <t>1.0967</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.079</t>
+          <t>0.994</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.411</t>
+          <t>1.210</t>
         </is>
       </c>
     </row>
@@ -3497,17 +5101,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.9308</t>
+          <t>0.9562</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.735</t>
+          <t>0.796</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.179</t>
+          <t>1.149</t>
         </is>
       </c>
     </row>
@@ -3520,17 +5124,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.8476</t>
+          <t>0.5264</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.560</t>
+          <t>0.398</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.283</t>
+          <t>0.697</t>
         </is>
       </c>
     </row>
@@ -3543,17 +5147,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.6499</t>
+          <t>0.4915</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.356</t>
+          <t>0.307</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.186</t>
+          <t>0.786</t>
         </is>
       </c>
     </row>
@@ -3569,7 +5173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3641,17 +5245,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9159</t>
+          <t>0.9327</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.869</t>
+          <t>0.893</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.966</t>
+          <t>0.974</t>
         </is>
       </c>
     </row>
@@ -3664,17 +5268,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.5083</t>
+          <t>1.9755</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.174</t>
+          <t>1.624</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.938</t>
+          <t>2.403</t>
         </is>
       </c>
     </row>
@@ -3687,17 +5291,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.9797</t>
+          <t>1.0349</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.879</t>
+          <t>0.940</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.092</t>
+          <t>1.139</t>
         </is>
       </c>
     </row>
@@ -3710,17 +5314,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.7719</t>
+          <t>0.7428</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.704</t>
+          <t>0.684</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.847</t>
+          <t>0.807</t>
         </is>
       </c>
     </row>
@@ -3733,17 +5337,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.9542</t>
+          <t>0.8701</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.858</t>
+          <t>0.795</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>0.952</t>
         </is>
       </c>
     </row>
@@ -3756,17 +5360,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0988</t>
+          <t>1.1234</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.944</t>
+          <t>1.008</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.278</t>
+          <t>1.252</t>
         </is>
       </c>
     </row>
@@ -3779,17 +5383,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.7458</t>
+          <t>0.7517</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.624</t>
+          <t>0.649</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.891</t>
+          <t>0.870</t>
         </is>
       </c>
     </row>
@@ -3802,17 +5406,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.0785</t>
+          <t>1.4943</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.737</t>
+          <t>1.204</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.578</t>
+          <t>1.855</t>
         </is>
       </c>
     </row>
@@ -3825,17 +5429,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.4034</t>
+          <t>1.0137</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.260</t>
+          <t>0.655</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.626</t>
+          <t>1.569</t>
         </is>
       </c>
     </row>
@@ -3848,17 +5452,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.4649</t>
+          <t>0.3515</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.185</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.649</t>
+          <t>0.668</t>
         </is>
       </c>
     </row>
@@ -3889,17 +5493,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.9854</t>
+          <t>1.0020</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.958</t>
+          <t>0.980</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.013</t>
+          <t>1.024</t>
         </is>
       </c>
     </row>
@@ -3912,17 +5516,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.5024</t>
+          <t>1.7383</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.346</t>
+          <t>1.578</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.677</t>
+          <t>1.915</t>
         </is>
       </c>
     </row>
@@ -3935,7 +5539,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.8917</t>
+          <t>0.8849</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3945,7 +5549,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.941</t>
+          <t>0.927</t>
         </is>
       </c>
     </row>
@@ -3958,17 +5562,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.9406</t>
+          <t>0.9394</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.893</t>
+          <t>0.901</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.991</t>
+          <t>0.980</t>
         </is>
       </c>
     </row>
@@ -3981,17 +5585,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1755</t>
+          <t>1.1669</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.106</t>
+          <t>1.112</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.249</t>
+          <t>1.225</t>
         </is>
       </c>
     </row>
@@ -4004,17 +5608,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.9190</t>
+          <t>0.9358</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.842</t>
+          <t>0.876</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.003</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
@@ -4027,17 +5631,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.8755</t>
+          <t>0.8795</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.779</t>
+          <t>0.804</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.983</t>
+          <t>0.962</t>
         </is>
       </c>
     </row>
@@ -4050,17 +5654,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.8059</t>
+          <t>1.1379</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.669</t>
+          <t>0.992</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.971</t>
+          <t>1.305</t>
         </is>
       </c>
     </row>
@@ -4073,17 +5677,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.7425</t>
+          <t>1.1875</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.572</t>
+          <t>0.961</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.963</t>
+          <t>1.468</t>
         </is>
       </c>
     </row>
@@ -4096,17 +5700,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.7581</t>
+          <t>0.5714</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.526</t>
+          <t>0.430</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.093</t>
+          <t>0.760</t>
         </is>
       </c>
     </row>
@@ -4137,17 +5741,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.0766</t>
+          <t>1.0742</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.020</t>
+          <t>1.028</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.136</t>
+          <t>1.122</t>
         </is>
       </c>
     </row>
@@ -4160,17 +5764,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9961</t>
+          <t>0.8799</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.768</t>
+          <t>0.719</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.292</t>
+          <t>1.076</t>
         </is>
       </c>
     </row>
@@ -4183,17 +5787,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.9102</t>
+          <t>0.8551</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.816</t>
+          <t>0.775</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.016</t>
+          <t>0.943</t>
         </is>
       </c>
     </row>
@@ -4206,17 +5810,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.2185</t>
+          <t>1.2646</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.164</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.338</t>
+          <t>1.374</t>
         </is>
       </c>
     </row>
@@ -4229,17 +5833,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.2319</t>
+          <t>1.3411</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.105</t>
+          <t>1.225</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.373</t>
+          <t>1.468</t>
         </is>
       </c>
     </row>
@@ -4252,17 +5856,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.8364</t>
+          <t>0.8330</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.716</t>
+          <t>0.745</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.977</t>
+          <t>0.932</t>
         </is>
       </c>
     </row>
@@ -4275,17 +5879,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1739</t>
+          <t>1.1700</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.977</t>
+          <t>1.006</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.410</t>
+          <t>1.361</t>
         </is>
       </c>
     </row>
@@ -4298,17 +5902,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.7472</t>
+          <t>0.7615</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.505</t>
+          <t>0.607</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.105</t>
+          <t>0.955</t>
         </is>
       </c>
     </row>
@@ -4321,17 +5925,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.8405</t>
+          <t>1.1715</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.179</t>
+          <t>0.747</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.874</t>
+          <t>1.838</t>
         </is>
       </c>
     </row>
@@ -4344,17 +5948,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.8713</t>
+          <t>1.6257</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.847</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>18.713</t>
+          <t>3.119</t>
         </is>
       </c>
     </row>
@@ -4385,17 +5989,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.0185</t>
+          <t>1.0572</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>1.039</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.041</t>
+          <t>1.076</t>
         </is>
       </c>
     </row>
@@ -4408,17 +6012,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.2002</t>
+          <t>1.1860</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.114</t>
+          <t>1.104</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.293</t>
+          <t>1.274</t>
         </is>
       </c>
     </row>
@@ -4431,17 +6035,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.0152</t>
+          <t>1.0313</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.974</t>
+          <t>0.996</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.058</t>
+          <t>1.068</t>
         </is>
       </c>
     </row>
@@ -4454,17 +6058,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.0137</t>
+          <t>1.0476</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.973</t>
+          <t>1.014</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.056</t>
+          <t>1.082</t>
         </is>
       </c>
     </row>
@@ -4477,17 +6081,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.0096</t>
+          <t>1.0513</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.962</t>
+          <t>1.011</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.060</t>
+          <t>1.093</t>
         </is>
       </c>
     </row>
@@ -4500,17 +6104,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.9513</t>
+          <t>0.9668</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.883</t>
+          <t>0.914</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.025</t>
+          <t>1.023</t>
         </is>
       </c>
     </row>
@@ -4523,17 +6127,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.0699</t>
+          <t>1.1588</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.960</t>
+          <t>1.070</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.193</t>
+          <t>1.255</t>
         </is>
       </c>
     </row>
@@ -4546,17 +6150,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.8359</t>
+          <t>1.1978</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.696</t>
+          <t>1.045</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.003</t>
+          <t>1.372</t>
         </is>
       </c>
     </row>
@@ -4569,17 +6173,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.9823</t>
+          <t>1.7418</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.746</t>
+          <t>1.401</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.294</t>
+          <t>2.165</t>
         </is>
       </c>
     </row>
@@ -4592,17 +6196,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.0159</t>
+          <t>0.6682</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.610</t>
+          <t>0.463</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.692</t>
+          <t>0.965</t>
         </is>
       </c>
     </row>
@@ -4633,17 +6237,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.1121</t>
+          <t>1.1335</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.057</t>
+          <t>1.087</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.170</t>
+          <t>1.182</t>
         </is>
       </c>
     </row>
@@ -4656,17 +6260,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.7957</t>
+          <t>0.6004</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.622</t>
+          <t>0.496</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.019</t>
+          <t>0.726</t>
         </is>
       </c>
     </row>
@@ -4679,17 +6283,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.0363</t>
+          <t>0.9965</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.934</t>
+          <t>0.908</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.150</t>
+          <t>1.093</t>
         </is>
       </c>
     </row>
@@ -4702,17 +6306,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.3132</t>
+          <t>1.4103</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.203</t>
+          <t>1.303</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.433</t>
+          <t>1.526</t>
         </is>
       </c>
     </row>
@@ -4725,17 +6329,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.0580</t>
+          <t>1.2083</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.956</t>
+          <t>1.109</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.171</t>
+          <t>1.317</t>
         </is>
       </c>
     </row>
@@ -4748,17 +6352,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.8658</t>
+          <t>0.8607</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.746</t>
+          <t>0.774</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.004</t>
+          <t>0.957</t>
         </is>
       </c>
     </row>
@@ -4771,17 +6375,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.4346</t>
+          <t>1.5417</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.200</t>
+          <t>1.333</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.715</t>
+          <t>1.783</t>
         </is>
       </c>
     </row>
@@ -4794,17 +6398,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.7751</t>
+          <t>0.8016</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.525</t>
+          <t>0.639</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.145</t>
+          <t>1.005</t>
         </is>
       </c>
     </row>
@@ -4817,17 +6421,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2.4348</t>
+          <t>1.7183</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.545</t>
+          <t>1.093</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.836</t>
+          <t>2.702</t>
         </is>
       </c>
     </row>
@@ -4840,17 +6444,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1.9813</t>
+          <t>1.9011</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.952</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>19.813</t>
+          <t>3.796</t>
         </is>
       </c>
     </row>
@@ -4881,17 +6485,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.0336</t>
+          <t>1.0551</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.009</t>
+          <t>1.036</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.059</t>
+          <t>1.075</t>
         </is>
       </c>
     </row>
@@ -4904,17 +6508,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.7988</t>
+          <t>0.6823</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.722</t>
+          <t>0.627</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.884</t>
+          <t>0.743</t>
         </is>
       </c>
     </row>
@@ -4927,17 +6531,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.1385</t>
+          <t>1.1654</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.088</t>
+          <t>1.121</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.191</t>
+          <t>1.212</t>
         </is>
       </c>
     </row>
@@ -4950,17 +6554,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.0776</t>
+          <t>1.1152</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.033</t>
+          <t>1.078</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.124</t>
+          <t>1.154</t>
         </is>
       </c>
     </row>
@@ -4973,17 +6577,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.8588</t>
+          <t>0.9010</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.815</t>
+          <t>0.864</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.906</t>
+          <t>0.939</t>
         </is>
       </c>
     </row>
@@ -4996,17 +6600,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.0351</t>
+          <t>1.0332</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.953</t>
+          <t>0.971</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.125</t>
+          <t>1.099</t>
         </is>
       </c>
     </row>
@@ -5019,17 +6623,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.2221</t>
+          <t>1.3176</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.087</t>
+          <t>1.207</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.374</t>
+          <t>1.439</t>
         </is>
       </c>
     </row>
@@ -5042,17 +6646,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1.0373</t>
+          <t>1.0526</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.846</t>
+          <t>0.903</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.272</t>
+          <t>1.226</t>
         </is>
       </c>
     </row>
@@ -5065,17 +6669,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1.3229</t>
+          <t>1.4667</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.994</t>
+          <t>1.150</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.761</t>
+          <t>1.871</t>
         </is>
       </c>
     </row>
@@ -5088,17 +6692,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1.3401</t>
+          <t>1.1694</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.810</t>
+          <t>0.796</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2.218</t>
+          <t>1.717</t>
         </is>
       </c>
     </row>
@@ -5129,17 +6733,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1.2643</t>
+          <t>1.2678</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>1.241</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.304</t>
+          <t>1.296</t>
         </is>
       </c>
     </row>
@@ -5152,17 +6756,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1.6351</t>
+          <t>1.5641</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.494</t>
+          <t>1.446</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.789</t>
+          <t>1.691</t>
         </is>
       </c>
     </row>
@@ -5175,17 +6779,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1.1722</t>
+          <t>1.1681</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.116</t>
+          <t>1.123</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>1.215</t>
         </is>
       </c>
     </row>
@@ -5198,17 +6802,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1.1913</t>
+          <t>1.1553</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.133</t>
+          <t>1.113</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.253</t>
+          <t>1.199</t>
         </is>
       </c>
     </row>
@@ -5221,17 +6825,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1.3495</t>
+          <t>1.3524</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>1.288</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.445</t>
+          <t>1.421</t>
         </is>
       </c>
     </row>
@@ -5244,17 +6848,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1.2486</t>
+          <t>1.2976</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.072</t>
+          <t>1.181</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.454</t>
+          <t>1.426</t>
         </is>
       </c>
     </row>
@@ -5267,17 +6871,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2.6410</t>
+          <t>2.5414</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.924</t>
+          <t>2.153</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3.625</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -5290,17 +6894,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1.0920</t>
+          <t>1.2511</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.775</t>
+          <t>0.927</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.539</t>
+          <t>1.689</t>
         </is>
       </c>
     </row>
@@ -5313,17 +6917,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.7350</t>
+          <t>2.2488</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.429</t>
+          <t>1.389</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.258</t>
+          <t>3.640</t>
         </is>
       </c>
     </row>
@@ -5336,17 +6940,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3.7414</t>
+          <t>3.9243</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>1.602</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>37.414</t>
+          <t>9.611</t>
         </is>
       </c>
     </row>
@@ -5377,17 +6981,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1.3805</t>
+          <t>1.3558</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.306</t>
+          <t>1.298</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.459</t>
+          <t>1.416</t>
         </is>
       </c>
     </row>
@@ -5400,17 +7004,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1.0841</t>
+          <t>0.7917</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.843</t>
+          <t>0.653</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.395</t>
+          <t>0.960</t>
         </is>
       </c>
     </row>
@@ -5423,17 +7027,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1.1965</t>
+          <t>1.1287</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.075</t>
+          <t>1.027</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.332</t>
+          <t>1.240</t>
         </is>
       </c>
     </row>
@@ -5446,17 +7050,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1.5432</t>
+          <t>1.5553</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.407</t>
+          <t>1.434</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.692</t>
+          <t>1.687</t>
         </is>
       </c>
     </row>
@@ -5469,17 +7073,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1.4143</t>
+          <t>1.5544</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.264</t>
+          <t>1.419</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.583</t>
+          <t>1.702</t>
         </is>
       </c>
     </row>
@@ -5492,17 +7096,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1.1364</t>
+          <t>1.1551</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.931</t>
+          <t>1.014</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.387</t>
+          <t>1.316</t>
         </is>
       </c>
     </row>
@@ -5515,17 +7119,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3.5410</t>
+          <t>3.3811</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2.502</t>
+          <t>2.753</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>5.011</t>
+          <t>4.153</t>
         </is>
       </c>
     </row>
@@ -5538,17 +7142,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1.0126</t>
+          <t>0.8372</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.623</t>
+          <t>0.590</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.646</t>
+          <t>1.189</t>
         </is>
       </c>
     </row>
@@ -5561,17 +7165,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1.8218</t>
+          <t>2.2184</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.953</t>
+          <t>1.188</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3.482</t>
+          <t>4.141</t>
         </is>
       </c>
     </row>
@@ -5584,17 +7188,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>8.0481</t>
+          <t>8.0491</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>2.760</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>80.481</t>
+          <t>23.474</t>
         </is>
       </c>
     </row>
@@ -5625,17 +7229,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1.2822</t>
+          <t>1.2635</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>1.235</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.324</t>
+          <t>1.293</t>
         </is>
       </c>
     </row>
@@ -5648,17 +7252,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1.0884</t>
+          <t>0.8998</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.972</t>
+          <t>0.822</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1.218</t>
+          <t>0.986</t>
         </is>
       </c>
     </row>
@@ -5671,17 +7275,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1.3146</t>
+          <t>1.3200</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1.248</t>
+          <t>1.265</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.384</t>
+          <t>1.378</t>
         </is>
       </c>
     </row>
@@ -5694,17 +7298,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1.2665</t>
+          <t>1.2299</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1.203</t>
+          <t>1.183</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1.333</t>
+          <t>1.279</t>
         </is>
       </c>
     </row>
@@ -5717,17 +7321,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1.1480</t>
+          <t>1.1590</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.069</t>
+          <t>1.101</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1.233</t>
+          <t>1.220</t>
         </is>
       </c>
     </row>
@@ -5740,17 +7344,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1.3586</t>
+          <t>1.3866</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1.162</t>
+          <t>1.257</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1.589</t>
+          <t>1.530</t>
         </is>
       </c>
     </row>
@@ -5763,17 +7367,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>3.0165</t>
+          <t>2.8898</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2.191</t>
+          <t>2.438</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4.154</t>
+          <t>3.425</t>
         </is>
       </c>
     </row>
@@ -5786,17 +7390,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1.3551</t>
+          <t>1.0994</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.950</t>
+          <t>0.808</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1.933</t>
+          <t>1.496</t>
         </is>
       </c>
     </row>
@@ -5809,17 +7413,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.9898</t>
+          <t>1.8937</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.575</t>
+          <t>1.156</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1.703</t>
+          <t>3.103</t>
         </is>
       </c>
     </row>
@@ -5832,17 +7436,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>4.3008</t>
+          <t>4.5568</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>1.848</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>43.008</t>
+          <t>11.239</t>
         </is>
       </c>
     </row>
@@ -5873,17 +7477,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1.2413</t>
+          <t>1.1978</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1.208</t>
+          <t>1.176</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1.275</t>
+          <t>1.220</t>
         </is>
       </c>
     </row>
@@ -5896,17 +7500,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1.3624</t>
+          <t>1.3188</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1.260</t>
+          <t>1.238</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1.474</t>
+          <t>1.405</t>
         </is>
       </c>
     </row>
@@ -5919,17 +7523,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1.1547</t>
+          <t>1.1327</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.111</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.200</t>
+          <t>1.167</t>
         </is>
       </c>
     </row>
@@ -5942,17 +7546,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1.1752</t>
+          <t>1.1028</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1.129</t>
+          <t>1.072</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>1.135</t>
         </is>
       </c>
     </row>
@@ -5965,17 +7569,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1.3367</t>
+          <t>1.2864</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1.257</t>
+          <t>1.234</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1.421</t>
+          <t>1.342</t>
         </is>
       </c>
     </row>
@@ -5988,17 +7592,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1.3125</t>
+          <t>1.3421</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1.130</t>
+          <t>1.225</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1.524</t>
+          <t>1.471</t>
         </is>
       </c>
     </row>
@@ -6011,17 +7615,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2.4684</t>
+          <t>2.1931</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1.797</t>
+          <t>1.859</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3.390</t>
+          <t>2.587</t>
         </is>
       </c>
     </row>
@@ -6034,17 +7638,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1.3064</t>
+          <t>1.0445</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0.918</t>
+          <t>0.768</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1.860</t>
+          <t>1.421</t>
         </is>
       </c>
     </row>
@@ -6057,17 +7661,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.7482</t>
+          <t>1.2911</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0.432</t>
+          <t>0.786</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>1.297</t>
+          <t>2.121</t>
         </is>
       </c>
     </row>
@@ -6080,17 +7684,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>4.0621</t>
+          <t>4.1365</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>1.629</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>40.621</t>
+          <t>10.504</t>
         </is>
       </c>
     </row>
